--- a/storyboard.xlsx
+++ b/storyboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Components " sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>File uploader</t>
   </si>
@@ -58,9 +58,6 @@
     <t>(for the future)</t>
   </si>
   <si>
-    <t>No selection, but do:</t>
-  </si>
-  <si>
     <t>2. Impute missing quarter if year is known</t>
   </si>
   <si>
@@ -76,15 +73,9 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Upload Data</t>
-  </si>
-  <si>
     <t>Format Data</t>
   </si>
   <si>
-    <t>Summarize Data</t>
-  </si>
-  <si>
     <t>3. Exlcude cases with missing age</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>Do we want to assume that the TID data come as 1) Year of Diagnosis 2) Qtr of Diagnosis 3) Time btwn diagnosis and last neg test?</t>
   </si>
   <si>
-    <t>5. Year+qtr of diagnosis</t>
-  </si>
-  <si>
     <t>Summarize variables (no selection)</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Simple tables of values and % missing/excluded? Pre- formatting, then?</t>
   </si>
   <si>
-    <t>Summarize TID</t>
-  </si>
-  <si>
     <t>All, or by subgroups</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>Trend in EverHadNegTest over time</t>
   </si>
   <si>
-    <t>Run model-&gt;Results</t>
-  </si>
-  <si>
     <t>All, or by subgroups?</t>
   </si>
   <si>
@@ -194,6 +176,42 @@
   </si>
   <si>
     <t>Select: impute NA? Do both?</t>
+  </si>
+  <si>
+    <t>Selections for formatting data? E.g. turning Year+Quarter variables into continuous time…</t>
+  </si>
+  <si>
+    <t>5. Year+qtr of diagnosis or numeric year variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2a. Whether to subset to a group, or do the analysis by subgroups and then combine</t>
+  </si>
+  <si>
+    <t>No selection, but do internally:</t>
+  </si>
+  <si>
+    <t>Load Data</t>
+  </si>
+  <si>
+    <t>Examine Data</t>
+  </si>
+  <si>
+    <t>Calculate TID</t>
+  </si>
+  <si>
+    <t>Backcalculate Infections</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>5.Specify a time step/mandate as quarterly? For timeDx</t>
+  </si>
+  <si>
+    <t>Progress bar</t>
+  </si>
+  <si>
+    <t>Run Analysis button</t>
   </si>
 </sst>
 </file>
@@ -377,7 +395,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,13 +423,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -430,8 +457,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -445,6 +481,12 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -458,6 +500,12 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,203 +835,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A2:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="63.5" customWidth="1"/>
-    <col min="4" max="4" width="50.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="63.5" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="C8" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C14" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="C21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="C23" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="C24" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="27" spans="1:5">
+      <c r="C27" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="28" spans="1:5">
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="C31" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1001,602 +1085,604 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="15" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="61" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="15">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="61" customHeight="1">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="16">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="8" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="8"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="15">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="8"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="16">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="13"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="9"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="3" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="4"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="8"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="15">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="12"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="8"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="9"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="16">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="9"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="5"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" s="9"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="16">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="B53" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="9"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="B58" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="B58" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="10"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="B61" s="9"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="10"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="7"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
